--- a/data/chatapp-memory.xlsx
+++ b/data/chatapp-memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\cross-platform-performance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A25A257-81F4-4AF3-8D0C-AB8CBFAE61EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EA78A3-9425-45B7-B2F5-CCF064A0ABF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,16 +326,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:srgbClr val="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:srgbClr>
                 </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -455,6 +452,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>175.596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>235.11600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>197.50399999999999</c:v>
@@ -1488,7 +1488,7 @@
   <dimension ref="B1:C8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,7 +1541,9 @@
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5">
+        <v>235.11600000000001</v>
+      </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
